--- a/app/Licenciatura_em_Matematica.xlsx
+++ b/app/Licenciatura_em_Matematica.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Marta Munhebeze Malulek</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Aventina Fabiao Machava</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>110200833081B</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Adelaide De Jesus Chirreu</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110101199154Q</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>Elisa Fernando Muiambo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102754123B</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Gloria Francisco Mucavel</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102635088I</t>
   </si>
   <si>
@@ -542,9 +527,6 @@
     <t>Lourina Armando Matuassa</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101813943L</t>
   </si>
   <si>
@@ -567,9 +549,6 @@
   </si>
   <si>
     <t>Maria JosÉ Matavel</t>
-  </si>
-  <si>
-    <t>Distrito de Moamba</t>
   </si>
   <si>
     <t>100700962162M</t>
@@ -2138,7 +2117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2154,7 +2133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2170,7 +2149,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2186,7 +2165,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2202,7 +2181,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2217,9 +2196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2227,7 +2204,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2238,7 +2215,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2247,7 +2224,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2259,7 +2236,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2267,7 +2244,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2363,7 +2340,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2406,7 +2383,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2733,7 +2710,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2749,7 +2726,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2765,7 +2742,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2781,7 +2758,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2797,7 +2774,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2812,9 +2789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2822,7 +2797,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2833,7 +2808,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2842,7 +2817,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2854,7 +2829,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2862,7 +2837,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2958,7 +2933,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3001,7 +2976,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3328,7 +3303,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3344,7 +3319,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3360,7 +3335,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3376,7 +3351,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3392,7 +3367,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3407,9 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3417,7 +3390,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3428,7 +3401,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3437,7 +3410,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3449,7 +3422,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3457,7 +3430,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3553,7 +3526,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3596,7 +3569,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3923,7 +3896,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3939,7 +3912,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3955,7 +3928,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3971,7 +3944,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3987,7 +3960,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4002,9 +3975,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4012,7 +3983,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4023,7 +3994,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4032,7 +4003,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4044,7 +4015,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4052,7 +4023,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4148,7 +4119,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4191,7 +4162,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4518,7 +4489,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4534,7 +4505,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4550,7 +4521,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4566,7 +4537,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4582,7 +4553,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4597,9 +4568,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4607,7 +4576,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4618,7 +4587,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4627,7 +4596,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4639,7 +4608,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4647,7 +4616,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4743,7 +4712,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4786,7 +4755,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5113,7 +5082,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5129,7 +5098,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5145,7 +5114,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5161,7 +5130,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5177,7 +5146,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5192,9 +5161,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5202,7 +5169,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5213,7 +5180,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5222,7 +5189,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5234,7 +5201,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5242,7 +5209,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5338,7 +5305,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5381,7 +5348,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5708,7 +5675,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5724,7 +5691,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5740,7 +5707,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5756,7 +5723,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5772,7 +5739,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5787,9 +5754,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>164</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5797,7 +5762,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5808,7 +5773,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5817,7 +5782,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5829,7 +5794,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5837,7 +5802,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5933,7 +5898,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5976,7 +5941,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6303,7 +6268,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6319,7 +6284,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6335,7 +6300,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6351,7 +6316,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6367,7 +6332,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6382,9 +6347,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6392,7 +6355,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6403,7 +6366,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6412,7 +6375,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6424,7 +6387,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6432,7 +6395,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6528,7 +6491,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6571,7 +6534,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6898,7 +6861,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6914,7 +6877,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6930,7 +6893,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6946,7 +6909,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6962,7 +6925,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6977,9 +6940,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6987,7 +6948,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6998,7 +6959,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7007,7 +6968,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7019,7 +6980,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7027,7 +6988,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7123,7 +7084,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7166,7 +7127,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7493,7 +7454,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7509,7 +7470,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7525,7 +7486,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7541,7 +7502,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7557,7 +7518,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7572,9 +7533,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7582,7 +7541,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7593,7 +7552,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7602,7 +7561,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7614,7 +7573,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7622,7 +7581,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7718,7 +7677,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7761,7 +7720,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8167,9 +8126,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8177,7 +8134,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8188,7 +8145,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8197,7 +8154,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8209,7 +8166,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8217,7 +8174,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8313,7 +8270,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8356,7 +8313,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8683,7 +8640,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8699,7 +8656,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8715,7 +8672,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8731,7 +8688,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8747,7 +8704,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8762,9 +8719,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8772,7 +8727,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8783,7 +8738,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8792,7 +8747,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8804,7 +8759,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8812,7 +8767,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8908,7 +8863,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8951,7 +8906,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9278,7 +9233,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9294,7 +9249,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9310,7 +9265,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9326,7 +9281,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9342,7 +9297,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9357,9 +9312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9367,7 +9320,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9378,7 +9331,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9387,7 +9340,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9399,7 +9352,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9407,7 +9360,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9503,7 +9456,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9546,7 +9499,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9873,7 +9826,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9889,7 +9842,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9905,7 +9858,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9921,7 +9874,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9937,7 +9890,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9952,9 +9905,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9962,7 +9913,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9973,7 +9924,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9982,7 +9933,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9994,7 +9945,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10002,7 +9953,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10098,7 +10049,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10141,7 +10092,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10468,7 +10419,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10484,7 +10435,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10500,7 +10451,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10516,7 +10467,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10532,7 +10483,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10547,9 +10498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10557,7 +10506,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10568,7 +10517,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10577,7 +10526,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10589,7 +10538,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10597,7 +10546,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10693,7 +10642,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10736,7 +10685,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11063,7 +11012,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11079,7 +11028,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11095,7 +11044,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11111,7 +11060,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11127,7 +11076,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11142,9 +11091,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11152,7 +11099,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11163,7 +11110,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11172,7 +11119,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11184,7 +11131,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11192,7 +11139,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11288,7 +11235,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11331,7 +11278,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11658,7 +11605,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11674,7 +11621,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11690,7 +11637,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11706,7 +11653,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11722,7 +11669,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11737,9 +11684,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>164</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11747,7 +11692,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11758,7 +11703,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11767,7 +11712,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11779,7 +11724,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11787,7 +11732,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11883,7 +11828,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11926,7 +11871,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12253,7 +12198,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12269,7 +12214,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12285,7 +12230,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12301,7 +12246,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12317,7 +12262,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12332,9 +12277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>164</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12342,7 +12285,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12353,7 +12296,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12362,7 +12305,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12374,7 +12317,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12382,7 +12325,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12478,7 +12421,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12521,7 +12464,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12848,7 +12791,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12864,7 +12807,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12880,7 +12823,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12896,7 +12839,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12912,7 +12855,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12927,9 +12870,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12937,7 +12878,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12948,7 +12889,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12957,7 +12898,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12969,7 +12910,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12977,7 +12918,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13073,7 +13014,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13116,7 +13057,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13443,7 +13384,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13459,7 +13400,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13475,7 +13416,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13491,7 +13432,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13507,7 +13448,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13522,9 +13463,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>164</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13532,7 +13471,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13543,7 +13482,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13552,7 +13491,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13564,7 +13503,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13572,7 +13511,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13668,7 +13607,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13711,7 +13650,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14038,7 +13977,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14054,7 +13993,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14070,7 +14009,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14086,7 +14025,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14102,7 +14041,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14117,9 +14056,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14127,7 +14064,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14138,7 +14075,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14147,7 +14084,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14159,7 +14096,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14167,7 +14104,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14263,7 +14200,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14306,7 +14243,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14633,7 +14570,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14649,7 +14586,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14665,7 +14602,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14681,7 +14618,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14697,7 +14634,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14712,9 +14649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14722,7 +14657,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14733,7 +14668,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14742,7 +14677,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14754,7 +14689,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14762,7 +14697,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14858,7 +14793,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14901,7 +14836,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15228,7 +15163,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15244,7 +15179,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15260,7 +15195,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15276,7 +15211,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15292,7 +15227,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15307,9 +15242,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15317,7 +15250,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15328,7 +15261,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15337,7 +15270,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15349,7 +15282,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15453,7 +15386,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15496,7 +15429,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15823,7 +15756,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15839,7 +15772,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15855,7 +15788,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15871,7 +15804,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15887,7 +15820,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15902,9 +15835,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15912,7 +15843,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15923,7 +15854,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15932,7 +15863,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15944,7 +15875,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15952,7 +15883,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16048,7 +15979,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16091,7 +16022,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16474,7 +16405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16490,7 +16421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16506,7 +16437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16522,7 +16453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16538,7 +16469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16553,9 +16484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16563,7 +16492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16574,7 +16503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16583,7 +16512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16595,7 +16524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16603,7 +16532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16699,7 +16628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16742,7 +16671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17069,7 +16998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17085,7 +17014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17101,7 +17030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17117,7 +17046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17133,7 +17062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17148,9 +17077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17158,7 +17085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17169,7 +17096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17178,7 +17105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17190,7 +17117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17198,7 +17125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17294,7 +17221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17337,7 +17264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17664,7 +17591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17680,7 +17607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17696,7 +17623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17712,7 +17639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17728,7 +17655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17743,9 +17670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17753,7 +17678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17764,7 +17689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17773,7 +17698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17785,7 +17710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17793,7 +17718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17889,7 +17814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17932,7 +17857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18259,7 +18184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18275,7 +18200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18291,7 +18216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18307,7 +18232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18323,7 +18248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18338,9 +18263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18348,7 +18271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18359,7 +18282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18368,7 +18291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18380,7 +18303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18388,7 +18311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18484,7 +18407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18527,7 +18450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18854,7 +18777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18870,7 +18793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18886,7 +18809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18902,7 +18825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18918,7 +18841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18933,9 +18856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18943,7 +18864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18954,7 +18875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18963,7 +18884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18975,7 +18896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18983,7 +18904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19079,7 +19000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19122,7 +19043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19449,7 +19370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19465,7 +19386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19481,7 +19402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19497,7 +19418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19513,7 +19434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19528,9 +19449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19538,7 +19457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19549,7 +19468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19558,7 +19477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19570,7 +19489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19578,7 +19497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19674,7 +19593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19717,7 +19636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
